--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="339">
   <si>
     <t>Scenario</t>
   </si>
@@ -1016,232 +1016,28 @@
     <t>SIR00021091</t>
   </si>
   <si>
-    <t>SIR00021097</t>
-  </si>
-  <si>
-    <t>SIR00021098</t>
-  </si>
-  <si>
-    <t>SIR00021103</t>
-  </si>
-  <si>
-    <t>SIR00021104</t>
-  </si>
-  <si>
-    <t>SIR00021105</t>
-  </si>
-  <si>
-    <t>SIR00021108</t>
-  </si>
-  <si>
-    <t>SIR00021111</t>
-  </si>
-  <si>
-    <t>SIR00021112</t>
-  </si>
-  <si>
-    <t>SIR00021113</t>
-  </si>
-  <si>
-    <t>SIR00021115</t>
-  </si>
-  <si>
-    <t>SIR00021114</t>
-  </si>
-  <si>
-    <t>SIR00021119</t>
-  </si>
-  <si>
-    <t>SIR00021120</t>
-  </si>
-  <si>
-    <t>SIR00021121</t>
-  </si>
-  <si>
-    <t>SIR00021122</t>
-  </si>
-  <si>
-    <t>SIR00021123</t>
-  </si>
-  <si>
-    <t>SIR00021124</t>
-  </si>
-  <si>
-    <t>SIR00021125</t>
-  </si>
-  <si>
-    <t>SIR00021127</t>
-  </si>
-  <si>
-    <t>SIR00021128</t>
-  </si>
-  <si>
-    <t>SIR00021130</t>
-  </si>
-  <si>
-    <t>SIR00021129</t>
-  </si>
-  <si>
-    <t>SIR00021131</t>
-  </si>
-  <si>
-    <t>SIR00021132</t>
-  </si>
-  <si>
-    <t>SIR00021133</t>
-  </si>
-  <si>
-    <t>SIR00021134</t>
-  </si>
-  <si>
-    <t>SIR00021137</t>
-  </si>
-  <si>
-    <t>SIR00021138</t>
-  </si>
-  <si>
-    <t>SIR00021139</t>
-  </si>
-  <si>
-    <t>SIR00021140</t>
-  </si>
-  <si>
-    <t>SIR00021141</t>
-  </si>
-  <si>
-    <t>SIR00021142</t>
-  </si>
-  <si>
-    <t>SIR00021143</t>
-  </si>
-  <si>
-    <t>SIR00021144</t>
-  </si>
-  <si>
-    <t>SIR00021145</t>
-  </si>
-  <si>
-    <t>SIR00021147</t>
-  </si>
-  <si>
-    <t>SIR00021148</t>
-  </si>
-  <si>
-    <t>SIR00021149</t>
-  </si>
-  <si>
-    <t>SIR00021150</t>
-  </si>
-  <si>
-    <t>SIR00021152</t>
-  </si>
-  <si>
-    <t>SIR00021154</t>
-  </si>
-  <si>
-    <t>SIR00021153</t>
-  </si>
-  <si>
-    <t>SIR00021155</t>
-  </si>
-  <si>
-    <t>SIR00021156</t>
-  </si>
-  <si>
-    <t>SIR00021158</t>
-  </si>
-  <si>
-    <t>SIR00021159</t>
-  </si>
-  <si>
-    <t>SIR00021160</t>
-  </si>
-  <si>
-    <t>SIR00021161</t>
-  </si>
-  <si>
-    <t>SIR00021162</t>
-  </si>
-  <si>
-    <t>SIR00021163</t>
-  </si>
-  <si>
-    <t>SIR00021164</t>
-  </si>
-  <si>
-    <t>SIR00021167</t>
-  </si>
-  <si>
-    <t>SIR00021166</t>
-  </si>
-  <si>
-    <t>SIR00021168</t>
-  </si>
-  <si>
-    <t>SIR00021169</t>
-  </si>
-  <si>
-    <t>SIR00021170</t>
-  </si>
-  <si>
-    <t>SIR00021171</t>
-  </si>
-  <si>
-    <t>SIR00021172</t>
-  </si>
-  <si>
-    <t>SIR00021173</t>
-  </si>
-  <si>
-    <t>SIR00021174</t>
-  </si>
-  <si>
-    <t>SIR00021176</t>
-  </si>
-  <si>
-    <t>SIR00021177</t>
-  </si>
-  <si>
-    <t>SIR00021178</t>
-  </si>
-  <si>
-    <t>SIR00021180</t>
-  </si>
-  <si>
-    <t>SIR00021181</t>
-  </si>
-  <si>
-    <t>SIR00021182</t>
-  </si>
-  <si>
-    <t>SIR00021183</t>
-  </si>
-  <si>
-    <t>SIR00021184</t>
-  </si>
-  <si>
-    <t>SIR00021185</t>
-  </si>
-  <si>
-    <t>SIR00021186</t>
-  </si>
-  <si>
-    <t>SIR00021187</t>
-  </si>
-  <si>
-    <t>SIR00021188</t>
-  </si>
-  <si>
-    <t>SIR00021189</t>
-  </si>
-  <si>
-    <t>SIR00021190</t>
-  </si>
-  <si>
-    <t>SIR00021191</t>
-  </si>
-  <si>
-    <t>SIR00021192</t>
+    <t>SIR00021239</t>
+  </si>
+  <si>
+    <t>SIR00021240</t>
+  </si>
+  <si>
+    <t>SIR00021254</t>
+  </si>
+  <si>
+    <t>SIR00021255</t>
+  </si>
+  <si>
+    <t>SIR00021257</t>
+  </si>
+  <si>
+    <t>SIR00021258</t>
+  </si>
+  <si>
+    <t>SIR00021259</t>
+  </si>
+  <si>
+    <t>SIR00021260</t>
   </si>
 </sst>
 </file>
@@ -4442,7 +4238,7 @@
         <v>326</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4453,7 +4249,7 @@
         <v>326</v>
       </c>
       <c r="C3" t="s">
-        <v>406</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4464,7 +4260,7 @@
         <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>403</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4476,23 +4272,11 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" t="s">
-        <v>402</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4512,12 +4296,6 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="340">
   <si>
     <t>Scenario</t>
   </si>
@@ -1038,6 +1038,9 @@
   </si>
   <si>
     <t>SIR00021260</t>
+  </si>
+  <si>
+    <t>SIR00021300</t>
   </si>
 </sst>
 </file>
@@ -4249,7 +4252,7 @@
         <v>326</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="342">
   <si>
     <t>Scenario</t>
   </si>
@@ -1041,6 +1041,12 @@
   </si>
   <si>
     <t>SIR00021300</t>
+  </si>
+  <si>
+    <t>SIR00021310</t>
+  </si>
+  <si>
+    <t>SIR00021312</t>
   </si>
 </sst>
 </file>
@@ -4252,7 +4258,7 @@
         <v>326</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
